--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEAAF27-7848-432C-8F44-FB0620CE79E2}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97634276-08D9-4AB8-AE5D-C3B1931CB29B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,13 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +406,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +443,7 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -461,7 +460,7 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -495,7 +494,7 @@
       <c r="D5" s="4">
         <v>-0.01</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -512,7 +511,7 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97634276-08D9-4AB8-AE5D-C3B1931CB29B}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F8756B6-F219-4650-A12C-0B07D235C3DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Repo Rate</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>-8.8%</t>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +420,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F8756B6-F219-4650-A12C-0B07D235C3DE}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2154E82-C55E-4DB8-9381-A133065E19A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Repo Rate</t>
   </si>
   <si>
-    <t>Inflation</t>
-  </si>
-  <si>
-    <t>Unemployment</t>
-  </si>
-  <si>
     <t>Manufacturing PMI</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>Inflation Rate</t>
+  </si>
+  <si>
+    <t>Unemployment Rate</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,19 +421,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -447,15 +447,15 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>2.8199999999999999E-2</v>
@@ -464,15 +464,15 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
         <v>5.6000000000000001E-2</v>
@@ -481,15 +481,15 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>57.6</v>
@@ -501,12 +501,12 @@
         <v>-0.01</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>60.61</v>
@@ -515,15 +515,15 @@
         <v>67.5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>38.729999999999997</v>
@@ -532,10 +532,10 @@
         <v>38.340000000000003</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2154E82-C55E-4DB8-9381-A133065E19A5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{634ED199-86D2-434C-9294-7A1C0DF08C30}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Repo Rate</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Unemployment Rate</t>
+  </si>
+  <si>
+    <t>India Date</t>
+  </si>
+  <si>
+    <t>UK Date</t>
   </si>
 </sst>
 </file>
@@ -120,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +426,7 @@
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -435,8 +442,14 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,8 +465,14 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="5">
+        <v>45809</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -469,8 +488,14 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>45802</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -486,8 +511,14 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>45802</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -503,8 +534,14 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>45802</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -520,8 +557,14 @@
       <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>45802</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -536,6 +579,12 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45802</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45748</v>
       </c>
     </row>
   </sheetData>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{634ED199-86D2-434C-9294-7A1C0DF08C30}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24DBEA1-E834-438D-8A5B-1464104080DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Repo Rate</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>UK Date</t>
+  </si>
+  <si>
+    <t>-0.01%</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,8 +531,8 @@
       <c r="C5" s="2">
         <v>46.4</v>
       </c>
-      <c r="D5" s="4">
-        <v>-0.01</v>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D24DBEA1-E834-438D-8A5B-1464104080DC}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80B280D1-0B1B-481B-96E3-FB2E102E6625}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,33 +51,15 @@
     <t>India MoM Change</t>
   </si>
   <si>
-    <t>-50 bps</t>
-  </si>
-  <si>
     <t>No change</t>
   </si>
   <si>
-    <t>-34 bps</t>
-  </si>
-  <si>
-    <t>+50 bps</t>
-  </si>
-  <si>
     <t>+10 bps</t>
   </si>
   <si>
     <t>+2.2%</t>
   </si>
   <si>
-    <t>-6.6%</t>
-  </si>
-  <si>
-    <t>+0.6%</t>
-  </si>
-  <si>
-    <t>-8.8%</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -94,6 +76,24 @@
   </si>
   <si>
     <t>-0.01%</t>
+  </si>
+  <si>
+    <t>-72 bps</t>
+  </si>
+  <si>
+    <t>+20 bps</t>
+  </si>
+  <si>
+    <t>+64 bps</t>
+  </si>
+  <si>
+    <t>-11%</t>
+  </si>
+  <si>
+    <t>+1.2%</t>
+  </si>
+  <si>
+    <t>-9.3%</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,11 +427,12 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -446,10 +447,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -462,63 +463,63 @@
       <c r="C2" s="1">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="G2" s="5">
-        <v>45809</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="5">
-        <v>45802</v>
+        <v>45833</v>
       </c>
       <c r="G3" s="5">
-        <v>45802</v>
+        <v>45833</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5">
+        <v>45833</v>
+      </c>
+      <c r="G4" s="5">
         <v>45802</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45772</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,16 +527,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>57.6</v>
+        <v>58.4</v>
       </c>
       <c r="C5" s="2">
-        <v>46.4</v>
+        <v>47.4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5">
         <v>45802</v>
@@ -549,22 +550,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>60.61</v>
+        <v>53.92</v>
       </c>
       <c r="C6" s="2">
-        <v>67.5</v>
+        <v>67.64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="5">
+        <v>45833</v>
+      </c>
+      <c r="G6" s="5">
         <v>45802</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45748</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,22 +573,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>38.729999999999997</v>
+        <v>35.14</v>
       </c>
       <c r="C7" s="2">
-        <v>38.340000000000003</v>
+        <v>39.29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5">
+        <v>45833</v>
+      </c>
+      <c r="G7" s="5">
         <v>45802</v>
-      </c>
-      <c r="G7" s="5">
-        <v>45748</v>
       </c>
     </row>
   </sheetData>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80B280D1-0B1B-481B-96E3-FB2E102E6625}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D051F35-9A5E-4DCF-A2BC-D2CB7D3BBF21}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="June" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Repo Rate</t>
   </si>
@@ -54,12 +65,6 @@
     <t>No change</t>
   </si>
   <si>
-    <t>+10 bps</t>
-  </si>
-  <si>
-    <t>+2.2%</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -75,25 +80,37 @@
     <t>UK Date</t>
   </si>
   <si>
-    <t>-0.01%</t>
-  </si>
-  <si>
-    <t>-72 bps</t>
-  </si>
-  <si>
     <t>+20 bps</t>
   </si>
   <si>
-    <t>+64 bps</t>
-  </si>
-  <si>
-    <t>-11%</t>
-  </si>
-  <si>
     <t>+1.2%</t>
   </si>
   <si>
     <t>-9.3%</t>
+  </si>
+  <si>
+    <t>-25 bps</t>
+  </si>
+  <si>
+    <t>-55 bps</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>-77 bps</t>
+  </si>
+  <si>
+    <t>+0.6%</t>
+  </si>
+  <si>
+    <t>+19.8%</t>
+  </si>
+  <si>
+    <t>-3.4%</t>
+  </si>
+  <si>
+    <t>-6.9%</t>
   </si>
 </sst>
 </file>
@@ -419,7 +436,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +449,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -447,10 +464,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -461,65 +478,65 @@
         <v>5.5E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>4.2500000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G2" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5">
-        <v>45833</v>
+        <v>45839</v>
       </c>
       <c r="G3" s="5">
-        <v>45833</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>7.5399999999999995E-2</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="C4" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="5">
+        <v>45839</v>
+      </c>
+      <c r="G4" s="5">
         <v>45833</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45802</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,22 +544,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>58.4</v>
+        <v>59.1</v>
       </c>
       <c r="C5" s="2">
-        <v>47.4</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5">
-        <v>45802</v>
+        <v>45839</v>
       </c>
       <c r="G5" s="5">
-        <v>45802</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -550,22 +567,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>53.92</v>
+        <v>64.59</v>
       </c>
       <c r="C6" s="2">
-        <v>67.64</v>
+        <v>66.91</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5">
+        <v>45839</v>
+      </c>
+      <c r="G6" s="5">
         <v>45833</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45802</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,22 +590,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>35.14</v>
+        <v>37.24</v>
       </c>
       <c r="C7" s="2">
-        <v>39.29</v>
+        <v>39.03</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5">
+        <v>45839</v>
+      </c>
+      <c r="G7" s="5">
         <v>45833</v>
-      </c>
-      <c r="G7" s="5">
-        <v>45802</v>
       </c>
     </row>
   </sheetData>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D051F35-9A5E-4DCF-A2BC-D2CB7D3BBF21}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93957785-200E-4AD5-9116-023C697B8707}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Repo Rate</t>
   </si>
@@ -80,37 +80,25 @@
     <t>UK Date</t>
   </si>
   <si>
-    <t>+20 bps</t>
-  </si>
-  <si>
-    <t>+1.2%</t>
-  </si>
-  <si>
-    <t>-9.3%</t>
-  </si>
-  <si>
-    <t>-25 bps</t>
-  </si>
-  <si>
-    <t>-55 bps</t>
-  </si>
-  <si>
     <t>No Change</t>
   </si>
   <si>
-    <t>-77 bps</t>
-  </si>
-  <si>
-    <t>+0.6%</t>
-  </si>
-  <si>
-    <t>+19.8%</t>
-  </si>
-  <si>
-    <t>-3.4%</t>
-  </si>
-  <si>
-    <t>-6.9%</t>
+    <t>+46 bps</t>
+  </si>
+  <si>
+    <t>-46 bps</t>
+  </si>
+  <si>
+    <t>-2%</t>
+  </si>
+  <si>
+    <t>+0.3%</t>
+  </si>
+  <si>
+    <t>-4.6%</t>
+  </si>
+  <si>
+    <t>+4.9%</t>
   </si>
 </sst>
 </file>
@@ -436,7 +424,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,14 +471,14 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G2" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -498,22 +486,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1.55E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="C3" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G3" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,22 +509,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>6.7699999999999996E-2</v>
+        <v>6.3100000000000003E-2</v>
       </c>
       <c r="C4" s="1">
         <v>4.7E-2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G4" s="5">
-        <v>45833</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,22 +532,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>59.1</v>
+        <v>59.3</v>
       </c>
       <c r="C5" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G5" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,22 +555,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>64.59</v>
+        <v>61.59</v>
       </c>
       <c r="C6" s="2">
-        <v>66.91</v>
+        <v>70.22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G6" s="5">
-        <v>45833</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,22 +578,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>37.24</v>
+        <v>35.1</v>
       </c>
       <c r="C7" s="2">
-        <v>39.03</v>
+        <v>41.48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="G7" s="5">
-        <v>45833</v>
+        <v>45863</v>
       </c>
     </row>
   </sheetData>

--- a/data/Macro_MoM_Comparison.xlsx
+++ b/data/Macro_MoM_Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukindiabc-my.sharepoint.com/personal/manish_verma_ukibc_com/Documents/Intelligence Unit/PRO BONO/Data Visualisation and Website Integration/Economic Indices/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93957785-200E-4AD5-9116-023C697B8707}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="11_F25DC773A252ABDACC1048ED319961C25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05A742B-9DFE-4499-953B-765CFBE3884C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Repo Rate</t>
   </si>
@@ -80,25 +80,31 @@
     <t>UK Date</t>
   </si>
   <si>
-    <t>No Change</t>
-  </si>
-  <si>
-    <t>+46 bps</t>
-  </si>
-  <si>
-    <t>-46 bps</t>
-  </si>
-  <si>
-    <t>-2%</t>
-  </si>
-  <si>
-    <t>+0.3%</t>
-  </si>
-  <si>
-    <t>-4.6%</t>
-  </si>
-  <si>
-    <t>+4.9%</t>
+    <t>-53 bps</t>
+  </si>
+  <si>
+    <t>+12 bps</t>
+  </si>
+  <si>
+    <t>+10 bps</t>
+  </si>
+  <si>
+    <t>-2.7%</t>
+  </si>
+  <si>
+    <t>-1.7%</t>
+  </si>
+  <si>
+    <t>+11.3%</t>
+  </si>
+  <si>
+    <t>-2.8%</t>
+  </si>
+  <si>
+    <t>+3.6%</t>
+  </si>
+  <si>
+    <t>-0.5%</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="G2" s="5">
-        <v>45901</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -486,22 +492,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>2.07E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="C3" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G3" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -509,22 +515,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>6.3100000000000003E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G4" s="5">
-        <v>45863</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,22 +538,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>59.3</v>
+        <v>57.7</v>
       </c>
       <c r="C5" s="2">
-        <v>47</v>
+        <v>46.2</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G5" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>61.59</v>
+        <v>68.53</v>
       </c>
       <c r="C6" s="2">
-        <v>70.22</v>
+        <v>68.239999999999995</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -567,10 +573,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G6" s="5">
-        <v>45863</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,22 +584,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>35.1</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="C7" s="2">
-        <v>41.48</v>
+        <v>41.25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="G7" s="5">
-        <v>45863</v>
+        <v>45894</v>
       </c>
     </row>
   </sheetData>
